--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893331.1035695977</v>
+        <v>888884.6807209979</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29913606.07986709</v>
+        <v>29913606.07986707</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.85593864</v>
+        <v>7134934.855938639</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>246.7989376409103</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>170.0821932318436</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H13" t="n">
-        <v>131.6109905108567</v>
+        <v>98.54295112844336</v>
       </c>
       <c r="I13" t="n">
         <v>71.38780296833761</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.62605313342555</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.5650864830671</v>
@@ -1587,7 +1587,7 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>358.8783686328491</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309219</v>
       </c>
       <c r="T14" t="n">
         <v>209.8302460968812</v>
@@ -1666,13 +1666,13 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>164.346011235029</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T15" t="n">
         <v>136.0833327936195</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>122.9643068467443</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.6838381111991</v>
@@ -1785,7 +1785,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T16" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>120.1115305045789</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>64.52582963660059</v>
       </c>
       <c r="W17" t="n">
-        <v>19.54489279320067</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>100.1462153100212</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I19" t="n">
         <v>71.38780296833761</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.62605313342555</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>183.5459863969238</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>86.75802197759562</v>
       </c>
       <c r="W20" t="n">
-        <v>363.8910710520401</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>103.9091984473988</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>66.17534636060959</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T22" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>165.0665853124337</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
         <v>255.6089649852995</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>159.8302191946454</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T24" t="n">
         <v>136.0833327936195</v>
@@ -2481,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.26258275451</v>
+        <v>90.74677755077262</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T25" t="n">
-        <v>19.15028298208814</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>375.9018277835757</v>
+        <v>180.3987151683968</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.06632804309219</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T26" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T27" t="n">
         <v>136.0833327936195</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.31668163842879</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,10 +2724,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6838381111991</v>
+        <v>103.8202240664348</v>
       </c>
       <c r="H28" t="n">
         <v>134.26258275451</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.0153716433569</v>
@@ -2772,16 +2772,16 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>324.8022728966263</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>42.54827695930543</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T30" t="n">
         <v>136.0833327936195</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.6838381111991</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>152.5650864830671</v>
@@ -3009,13 +3009,13 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>244.2081742962143</v>
       </c>
       <c r="W31" t="n">
-        <v>54.23879112794384</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>23.51726047328498</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8302460968812</v>
+        <v>34.469431120561</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T33" t="n">
         <v>136.0833327936195</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>85.25762972024539</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I34" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>152.5650864830671</v>
@@ -3246,13 +3246,13 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>176.3229871641368</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3271,13 +3271,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>62.13731960714053</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>88.15770923947815</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T36" t="n">
         <v>136.0833327936195</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.6620360848897</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>92.08671971655163</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.5650864830671</v>
@@ -3486,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H38" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T38" t="n">
         <v>209.8302460968812</v>
@@ -3562,16 +3562,16 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>22.34799832315951</v>
       </c>
       <c r="X38" t="n">
-        <v>171.3854868117053</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.3369048105384</v>
+        <v>60.33690481053839</v>
       </c>
       <c r="T39" t="n">
         <v>136.0833327936195</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>155.7024864433349</v>
       </c>
       <c r="F40" t="n">
-        <v>142.4770676871001</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.5650864830671</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>158.8676000172026</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>26.42234931587666</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>71.40814627929561</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3918,7 +3918,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T43" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>126.6696139567711</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3979,19 +3979,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>97.85387328257256</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>388.4157158796339</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,13 +4146,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>20.36746295414789</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.6838381111991</v>
       </c>
       <c r="H46" t="n">
-        <v>134.26258275451</v>
+        <v>22.73766968644891</v>
       </c>
       <c r="I46" t="n">
         <v>71.38780296833761</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>638.9261237229491</v>
+        <v>720.0258939139086</v>
       </c>
       <c r="C11" t="n">
-        <v>638.9261237229491</v>
+        <v>293.1251639272087</v>
       </c>
       <c r="D11" t="n">
-        <v>215.6335029079494</v>
+        <v>293.1251639272087</v>
       </c>
       <c r="E11" t="n">
-        <v>215.6335029079494</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="F11" t="n">
-        <v>215.6335029079494</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G11" t="n">
-        <v>215.6335029079494</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I11" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050661</v>
       </c>
       <c r="M11" t="n">
         <v>1043.801082832444</v>
@@ -5059,34 +5059,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P11" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q11" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R11" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U11" t="n">
-        <v>1875.831756891841</v>
+        <v>1933.474512490924</v>
       </c>
       <c r="V11" t="n">
-        <v>1875.831756891841</v>
+        <v>1933.474512490924</v>
       </c>
       <c r="W11" t="n">
-        <v>1875.831756891841</v>
+        <v>1537.083162791271</v>
       </c>
       <c r="X11" t="n">
-        <v>1464.111758059589</v>
+        <v>1125.363163959018</v>
       </c>
       <c r="Y11" t="n">
-        <v>1058.774488014479</v>
+        <v>720.0258939139086</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H12" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I12" t="n">
         <v>64.84342863053153</v>
       </c>
       <c r="J12" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428457</v>
       </c>
       <c r="K12" t="n">
-        <v>297.4808782569461</v>
+        <v>521.9522409288484</v>
       </c>
       <c r="L12" t="n">
-        <v>508.6576814496919</v>
+        <v>733.1290441215942</v>
       </c>
       <c r="M12" t="n">
-        <v>758.236541287304</v>
+        <v>982.7079039592063</v>
       </c>
       <c r="N12" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O12" t="n">
         <v>1474.123729607747</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>578.4075727872653</v>
+        <v>718.8877243705723</v>
       </c>
       <c r="C13" t="n">
-        <v>578.4075727872653</v>
+        <v>718.8877243705723</v>
       </c>
       <c r="D13" t="n">
-        <v>415.090799914036</v>
+        <v>718.8877243705723</v>
       </c>
       <c r="E13" t="n">
-        <v>248.8825940668895</v>
+        <v>552.6795185234258</v>
       </c>
       <c r="F13" t="n">
-        <v>248.8825940668895</v>
+        <v>380.8177442979862</v>
       </c>
       <c r="G13" t="n">
-        <v>248.8825940668895</v>
+        <v>215.4805340846538</v>
       </c>
       <c r="H13" t="n">
         <v>115.9421996114787</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J13" t="n">
-        <v>87.13587819270248</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K13" t="n">
-        <v>171.1136997362474</v>
+        <v>249.0354163844682</v>
       </c>
       <c r="L13" t="n">
-        <v>283.436090886576</v>
+        <v>737.7467011259619</v>
       </c>
       <c r="M13" t="n">
-        <v>591.2705511630502</v>
+        <v>1270.239865285272</v>
       </c>
       <c r="N13" t="n">
-        <v>1106.709457826329</v>
+        <v>1387.645849106671</v>
       </c>
       <c r="O13" t="n">
-        <v>1589.554333948619</v>
+        <v>1870.490725228961</v>
       </c>
       <c r="P13" t="n">
-        <v>1989.180585230913</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R13" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S13" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U13" t="n">
-        <v>1512.332610191271</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V13" t="n">
-        <v>1512.332610191271</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W13" t="n">
-        <v>1237.480206363784</v>
+        <v>961.4516209247672</v>
       </c>
       <c r="X13" t="n">
-        <v>994.9163098095888</v>
+        <v>718.8877243705723</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5735414993309</v>
+        <v>718.8877243705723</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>832.313650235855</v>
+        <v>743.9951768316589</v>
       </c>
       <c r="C14" t="n">
-        <v>832.313650235855</v>
+        <v>743.9951768316589</v>
       </c>
       <c r="D14" t="n">
-        <v>832.313650235855</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="E14" t="n">
-        <v>406.3367103837126</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="F14" t="n">
-        <v>406.3367103837126</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G14" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I14" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J14" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M14" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N14" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947677</v>
       </c>
       <c r="O14" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P14" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q14" t="n">
         <v>2100.109526681865</v>
@@ -5305,25 +5305,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T14" t="n">
-        <v>1922.072887082163</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U14" t="n">
-        <v>1663.882013359638</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V14" t="n">
-        <v>1663.882013359638</v>
+        <v>1306.392598485887</v>
       </c>
       <c r="W14" t="n">
-        <v>1663.882013359638</v>
+        <v>910.0012487862336</v>
       </c>
       <c r="X14" t="n">
-        <v>1252.162014527385</v>
+        <v>743.9951768316589</v>
       </c>
       <c r="Y14" t="n">
-        <v>1252.162014527385</v>
+        <v>743.9951768316589</v>
       </c>
     </row>
     <row r="15">
@@ -5339,40 +5339,40 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D15" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E15" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F15" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G15" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I15" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J15" t="n">
-        <v>169.4835916153554</v>
+        <v>169.4835916153553</v>
       </c>
       <c r="K15" t="n">
-        <v>320.938184101358</v>
+        <v>320.9381841013579</v>
       </c>
       <c r="L15" t="n">
-        <v>532.1149872941039</v>
+        <v>532.1149872941037</v>
       </c>
       <c r="M15" t="n">
-        <v>781.693847131716</v>
+        <v>781.6938471317156</v>
       </c>
       <c r="N15" t="n">
         <v>1040.219721542963</v>
       </c>
       <c r="O15" t="n">
-        <v>1368.668229322841</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P15" t="n">
         <v>1552.441323867022</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.9682220700535</v>
+        <v>926.9407234775822</v>
       </c>
       <c r="C16" t="n">
-        <v>468.9956589489694</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="D16" t="n">
-        <v>468.9956589489694</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E16" t="n">
-        <v>468.9956589489694</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F16" t="n">
-        <v>344.7892883967024</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G16" t="n">
-        <v>179.45207818337</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H16" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J16" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K16" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362473</v>
       </c>
       <c r="L16" t="n">
-        <v>608.6404166488189</v>
+        <v>659.8249844777408</v>
       </c>
       <c r="M16" t="n">
-        <v>1141.133580808129</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N16" t="n">
-        <v>1258.539564629528</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O16" t="n">
-        <v>1740.927831326518</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P16" t="n">
         <v>2140.554082608811</v>
@@ -5460,28 +5460,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R16" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S16" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T16" t="n">
-        <v>1946.573037954073</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="U16" t="n">
-        <v>1666.438758153964</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="V16" t="n">
-        <v>1384.727290761993</v>
+        <v>1755.847770858783</v>
       </c>
       <c r="W16" t="n">
-        <v>1109.874886934506</v>
+        <v>1480.995367031296</v>
       </c>
       <c r="X16" t="n">
-        <v>867.3109903803114</v>
+        <v>1238.431470477101</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.9682220700535</v>
+        <v>1117.106692189648</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1297.223045784276</v>
+        <v>1598.704407666101</v>
       </c>
       <c r="C17" t="n">
-        <v>1297.223045784276</v>
+        <v>1171.803677679402</v>
       </c>
       <c r="D17" t="n">
-        <v>1297.223045784276</v>
+        <v>1171.803677679402</v>
       </c>
       <c r="E17" t="n">
-        <v>871.2461059321332</v>
+        <v>745.826737827259</v>
       </c>
       <c r="F17" t="n">
-        <v>446.1219241215334</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G17" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I17" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643835</v>
       </c>
       <c r="J17" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804925</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L17" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N17" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P17" t="n">
         <v>1918.85421215123</v>
@@ -5542,25 +5542,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S17" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T17" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U17" t="n">
-        <v>2134.022630614366</v>
+        <v>1663.882013359637</v>
       </c>
       <c r="V17" t="n">
-        <v>2134.022630614366</v>
+        <v>1598.704407666101</v>
       </c>
       <c r="W17" t="n">
-        <v>2114.280314661638</v>
+        <v>1598.704407666101</v>
       </c>
       <c r="X17" t="n">
-        <v>1702.560315829385</v>
+        <v>1598.704407666101</v>
       </c>
       <c r="Y17" t="n">
-        <v>1297.223045784276</v>
+        <v>1598.704407666101</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D18" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E18" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F18" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I18" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J18" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K18" t="n">
-        <v>521.9522409288484</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L18" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M18" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P18" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.2715404137804</v>
+        <v>753.0585119120394</v>
       </c>
       <c r="C19" t="n">
-        <v>554.2989772926963</v>
+        <v>581.0859487909554</v>
       </c>
       <c r="D19" t="n">
-        <v>554.2989772926963</v>
+        <v>417.7691759177262</v>
       </c>
       <c r="E19" t="n">
-        <v>554.2989772926963</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="F19" t="n">
-        <v>382.4372030672567</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="G19" t="n">
-        <v>217.0999928539243</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H19" t="n">
         <v>115.9421996114787</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J19" t="n">
-        <v>87.13587819270246</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K19" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L19" t="n">
-        <v>659.8249844777409</v>
+        <v>985.0293102399838</v>
       </c>
       <c r="M19" t="n">
-        <v>778.7826681742292</v>
+        <v>1433.102577417459</v>
       </c>
       <c r="N19" t="n">
-        <v>1294.221574837508</v>
+        <v>1948.541484080738</v>
       </c>
       <c r="O19" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P19" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S19" t="n">
-        <v>2031.8763562978</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T19" t="n">
-        <v>2031.8763562978</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U19" t="n">
-        <v>1751.742076497691</v>
+        <v>1911.53110641334</v>
       </c>
       <c r="V19" t="n">
-        <v>1470.03060910572</v>
+        <v>1629.819639021369</v>
       </c>
       <c r="W19" t="n">
-        <v>1195.178205278233</v>
+        <v>1354.967235193882</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6143087240383</v>
+        <v>1169.567248934363</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.2715404137804</v>
+        <v>943.2244806241051</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1296.315274923233</v>
+        <v>470.7340377109689</v>
       </c>
       <c r="C20" t="n">
-        <v>869.4145449365332</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="D20" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="E20" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F20" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G20" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I20" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643878</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037499</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804931</v>
       </c>
       <c r="L20" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050666</v>
       </c>
       <c r="M20" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N20" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O20" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P20" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q20" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R20" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2134.022630614365</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T20" t="n">
-        <v>1922.072887082162</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U20" t="n">
-        <v>1663.882013359637</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V20" t="n">
-        <v>1663.882013359637</v>
+        <v>2104.031020579514</v>
       </c>
       <c r="W20" t="n">
-        <v>1296.315274923233</v>
+        <v>1707.639670879861</v>
       </c>
       <c r="X20" t="n">
-        <v>1296.315274923233</v>
+        <v>1295.919672047609</v>
       </c>
       <c r="Y20" t="n">
-        <v>1296.315274923233</v>
+        <v>890.582402002499</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D21" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E21" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F21" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G21" t="n">
-        <v>86.61386626702638</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H21" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I21" t="n">
-        <v>64.84342863053151</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J21" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K21" t="n">
-        <v>297.4808782569461</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L21" t="n">
-        <v>733.1290441215943</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M21" t="n">
-        <v>982.7079039592064</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N21" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O21" t="n">
-        <v>1474.123729607747</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P21" t="n">
-        <v>1657.896824151927</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q21" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R21" t="n">
         <v>1815.956238873899</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>486.8620741073588</v>
+        <v>821.9227334547786</v>
       </c>
       <c r="C22" t="n">
-        <v>381.903287796855</v>
+        <v>649.9501703336946</v>
       </c>
       <c r="D22" t="n">
-        <v>381.903287796855</v>
+        <v>649.9501703336946</v>
       </c>
       <c r="E22" t="n">
-        <v>215.6950819497085</v>
+        <v>483.7419644865481</v>
       </c>
       <c r="F22" t="n">
-        <v>43.83330772426897</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G22" t="n">
-        <v>43.83330772426897</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H22" t="n">
-        <v>43.83330772426897</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J22" t="n">
         <v>165.0575948409233</v>
@@ -5916,46 +5916,46 @@
         <v>496.3180254984903</v>
       </c>
       <c r="L22" t="n">
-        <v>608.6404166488188</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M22" t="n">
-        <v>727.5981003453071</v>
+        <v>1453.433175956137</v>
       </c>
       <c r="N22" t="n">
-        <v>1106.709457826328</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O22" t="n">
-        <v>1589.554333948618</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P22" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q22" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S22" t="n">
-        <v>2031.876356297799</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T22" t="n">
-        <v>1792.466889991378</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="U22" t="n">
-        <v>1512.33261019127</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="V22" t="n">
-        <v>1230.621142799299</v>
+        <v>1755.847770858784</v>
       </c>
       <c r="W22" t="n">
-        <v>955.7687389718117</v>
+        <v>1480.995367031297</v>
       </c>
       <c r="X22" t="n">
-        <v>713.2048424176168</v>
+        <v>1238.431470477102</v>
       </c>
       <c r="Y22" t="n">
-        <v>486.8620741073588</v>
+        <v>1012.088702166844</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1294.538726747133</v>
+        <v>913.4134204268155</v>
       </c>
       <c r="C23" t="n">
-        <v>1294.538726747133</v>
+        <v>913.4134204268155</v>
       </c>
       <c r="D23" t="n">
-        <v>871.2461059321332</v>
+        <v>746.6794958688016</v>
       </c>
       <c r="E23" t="n">
-        <v>871.2461059321332</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="F23" t="n">
-        <v>446.1219241215334</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G23" t="n">
-        <v>43.83330772426896</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643838</v>
+        <v>87.10761271643878</v>
       </c>
       <c r="J23" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037499</v>
       </c>
       <c r="K23" t="n">
-        <v>448.7747784804922</v>
+        <v>448.7747784804931</v>
       </c>
       <c r="L23" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050666</v>
       </c>
       <c r="M23" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N23" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O23" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.854212151229</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2100.109526681864</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R23" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S23" t="n">
-        <v>2134.022630614365</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T23" t="n">
-        <v>2134.022630614365</v>
+        <v>1979.715642681246</v>
       </c>
       <c r="U23" t="n">
-        <v>1875.83175689184</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="V23" t="n">
-        <v>1875.83175689184</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="W23" t="n">
-        <v>1714.387091038663</v>
+        <v>1325.133419259068</v>
       </c>
       <c r="X23" t="n">
-        <v>1714.387091038663</v>
+        <v>913.4134204268155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1714.387091038663</v>
+        <v>913.4134204268155</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D24" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E24" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F24" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G24" t="n">
-        <v>86.61386626702637</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H24" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I24" t="n">
-        <v>64.84342863053149</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J24" t="n">
-        <v>146.0262857709434</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K24" t="n">
-        <v>297.480878256946</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L24" t="n">
-        <v>508.6576814496918</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M24" t="n">
-        <v>758.2365412873038</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N24" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O24" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P24" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q24" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R24" t="n">
         <v>1815.956238873899</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>516.7618515177865</v>
+        <v>808.8560354586155</v>
       </c>
       <c r="C25" t="n">
-        <v>344.7892883967024</v>
+        <v>636.8834723375314</v>
       </c>
       <c r="D25" t="n">
-        <v>344.7892883967024</v>
+        <v>473.5666994643021</v>
       </c>
       <c r="E25" t="n">
-        <v>344.7892883967024</v>
+        <v>307.3584936171557</v>
       </c>
       <c r="F25" t="n">
-        <v>344.7892883967024</v>
+        <v>135.4967193917161</v>
       </c>
       <c r="G25" t="n">
-        <v>179.45207818337</v>
+        <v>135.4967193917161</v>
       </c>
       <c r="H25" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J25" t="n">
-        <v>87.13587819270242</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K25" t="n">
-        <v>361.3039070282704</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L25" t="n">
-        <v>850.0151917697639</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M25" t="n">
-        <v>968.9728754662522</v>
+        <v>778.7826681742292</v>
       </c>
       <c r="N25" t="n">
-        <v>1484.411782129531</v>
+        <v>1258.082955204228</v>
       </c>
       <c r="O25" t="n">
-        <v>1589.554333948618</v>
+        <v>1740.927831326519</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230911</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q25" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S25" t="n">
-        <v>2031.876356297799</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T25" t="n">
-        <v>2012.532636113871</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.398356313763</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="V25" t="n">
-        <v>1450.686888921792</v>
+        <v>1516.438304552363</v>
       </c>
       <c r="W25" t="n">
-        <v>1175.834485094305</v>
+        <v>1241.585900724876</v>
       </c>
       <c r="X25" t="n">
-        <v>933.2705885401101</v>
+        <v>999.022004170681</v>
       </c>
       <c r="Y25" t="n">
-        <v>706.9278202298522</v>
+        <v>999.022004170681</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>846.8247444822745</v>
+        <v>1502.224522790633</v>
       </c>
       <c r="C26" t="n">
-        <v>846.8247444822745</v>
+        <v>1075.323792803933</v>
       </c>
       <c r="D26" t="n">
-        <v>423.5321236672747</v>
+        <v>652.0311719889335</v>
       </c>
       <c r="E26" t="n">
-        <v>423.5321236672747</v>
+        <v>226.054232136791</v>
       </c>
       <c r="F26" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G26" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H26" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643838</v>
+        <v>87.10761271643842</v>
       </c>
       <c r="J26" t="n">
-        <v>228.5477172037494</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804925</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050659</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M26" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N26" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O26" t="n">
         <v>1667.064768900565</v>
@@ -6250,28 +6250,28 @@
         <v>2100.109526681865</v>
       </c>
       <c r="R26" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S26" t="n">
-        <v>2134.022630614365</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T26" t="n">
-        <v>1922.072887082162</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U26" t="n">
-        <v>1663.882013359637</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="V26" t="n">
-        <v>1663.882013359637</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="W26" t="n">
-        <v>1663.882013359637</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="X26" t="n">
-        <v>1252.162014527384</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="Y26" t="n">
-        <v>846.8247444822745</v>
+        <v>1922.072887082163</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D27" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E27" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F27" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G27" t="n">
-        <v>86.61386626702637</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H27" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053149</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J27" t="n">
-        <v>146.0262857709434</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K27" t="n">
-        <v>297.480878256946</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6576814496918</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N27" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O27" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q27" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R27" t="n">
         <v>1815.956238873899</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.3142671170782</v>
+        <v>957.6803074486884</v>
       </c>
       <c r="C28" t="n">
-        <v>674.3142671170782</v>
+        <v>785.7077443276044</v>
       </c>
       <c r="D28" t="n">
-        <v>510.9974942438489</v>
+        <v>622.3909714543751</v>
       </c>
       <c r="E28" t="n">
-        <v>344.7892883967024</v>
+        <v>456.1827656072286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.7892883967024</v>
+        <v>284.320991381789</v>
       </c>
       <c r="G28" t="n">
         <v>179.45207818337</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I28" t="n">
-        <v>43.83330772426896</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J28" t="n">
-        <v>87.13587819270242</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K28" t="n">
-        <v>345.8013494073289</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L28" t="n">
-        <v>834.5126341488224</v>
+        <v>522.9070889549469</v>
       </c>
       <c r="M28" t="n">
-        <v>1367.005798308132</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N28" t="n">
-        <v>1484.411782129531</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O28" t="n">
-        <v>1589.554333948618</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P28" t="n">
-        <v>1989.180585230911</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q28" t="n">
-        <v>2191.665386213448</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="R28" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S28" t="n">
-        <v>2031.876356297799</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T28" t="n">
-        <v>1792.466889991378</v>
+        <v>1952.255919907028</v>
       </c>
       <c r="U28" t="n">
-        <v>1512.332610191269</v>
+        <v>1672.12164010692</v>
       </c>
       <c r="V28" t="n">
-        <v>1512.332610191269</v>
+        <v>1390.410172714949</v>
       </c>
       <c r="W28" t="n">
-        <v>1237.480206363782</v>
+        <v>1390.410172714949</v>
       </c>
       <c r="X28" t="n">
-        <v>994.9163098095875</v>
+        <v>1147.846276160754</v>
       </c>
       <c r="Y28" t="n">
-        <v>768.5735414993295</v>
+        <v>1147.846276160754</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>468.9574895348688</v>
+        <v>1321.835159373711</v>
       </c>
       <c r="C29" t="n">
-        <v>468.9574895348688</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="D29" t="n">
-        <v>468.9574895348688</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E29" t="n">
         <v>468.9574895348688</v>
       </c>
       <c r="F29" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G29" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H29" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643842</v>
       </c>
       <c r="J29" t="n">
         <v>228.5477172037495</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804925</v>
       </c>
       <c r="L29" t="n">
-        <v>727.9824581050659</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M29" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N29" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O29" t="n">
-        <v>1667.064768900564</v>
+        <v>1667.064768900565</v>
       </c>
       <c r="P29" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q29" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R29" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T29" t="n">
-        <v>1979.715642681245</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U29" t="n">
-        <v>1979.715642681245</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.226227807495</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.226227807495</v>
+        <v>1776.533215740616</v>
       </c>
       <c r="X29" t="n">
-        <v>1294.143123871509</v>
+        <v>1364.813216908363</v>
       </c>
       <c r="Y29" t="n">
-        <v>888.8058538263988</v>
+        <v>1321.835159373711</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D30" t="n">
-        <v>377.9183167573209</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E30" t="n">
-        <v>273.2163830302581</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F30" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G30" t="n">
-        <v>86.61386626702638</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H30" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053151</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709434</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K30" t="n">
-        <v>297.480878256946</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L30" t="n">
-        <v>508.6576814496918</v>
+        <v>532.1149872941038</v>
       </c>
       <c r="M30" t="n">
-        <v>758.2365412873038</v>
+        <v>781.6938471317159</v>
       </c>
       <c r="N30" t="n">
-        <v>1016.762415698551</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O30" t="n">
-        <v>1474.123729607747</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P30" t="n">
-        <v>1657.896824151927</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q30" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R30" t="n">
         <v>1815.956238873899</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.7618515177865</v>
+        <v>854.8318315903725</v>
       </c>
       <c r="C31" t="n">
-        <v>344.7892883967024</v>
+        <v>682.8592684692885</v>
       </c>
       <c r="D31" t="n">
-        <v>344.7892883967024</v>
+        <v>682.8592684692885</v>
       </c>
       <c r="E31" t="n">
-        <v>344.7892883967024</v>
+        <v>516.651062622142</v>
       </c>
       <c r="F31" t="n">
         <v>344.7892883967024</v>
@@ -6615,58 +6615,58 @@
         <v>179.45207818337</v>
       </c>
       <c r="H31" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I31" t="n">
-        <v>43.83330772426897</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J31" t="n">
-        <v>87.13587819270244</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K31" t="n">
-        <v>171.1136997362473</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L31" t="n">
-        <v>659.8249844777408</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M31" t="n">
-        <v>904.0267557363568</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N31" t="n">
-        <v>1419.465662399636</v>
+        <v>1619.425900599751</v>
       </c>
       <c r="O31" t="n">
-        <v>1902.310538521926</v>
+        <v>1902.310538521927</v>
       </c>
       <c r="P31" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R31" t="n">
-        <v>2185.982504260493</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S31" t="n">
-        <v>2031.876356297799</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T31" t="n">
-        <v>1792.466889991378</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U31" t="n">
-        <v>1512.33261019127</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V31" t="n">
-        <v>1230.621142799299</v>
+        <v>1271.340568612696</v>
       </c>
       <c r="W31" t="n">
-        <v>1175.834485094305</v>
+        <v>1271.340568612696</v>
       </c>
       <c r="X31" t="n">
-        <v>933.2705885401101</v>
+        <v>1271.340568612696</v>
       </c>
       <c r="Y31" t="n">
-        <v>706.9278202298522</v>
+        <v>1044.997800302438</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>469.8102475764114</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C32" t="n">
-        <v>469.8102475764114</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D32" t="n">
-        <v>469.8102475764114</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E32" t="n">
-        <v>43.83330772426898</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F32" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G32" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H32" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I32" t="n">
-        <v>87.10761271643844</v>
+        <v>87.1076127164381</v>
       </c>
       <c r="J32" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037492</v>
       </c>
       <c r="K32" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L32" t="n">
         <v>727.9824581050659</v>
@@ -6718,34 +6718,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P32" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R32" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S32" t="n">
-        <v>2167.910577654575</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T32" t="n">
-        <v>1955.960834122372</v>
+        <v>2156.847779020964</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.769960399847</v>
+        <v>2156.847779020964</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.769960399847</v>
+        <v>2156.847779020964</v>
       </c>
       <c r="W32" t="n">
-        <v>1301.378610700194</v>
+        <v>2156.847779020964</v>
       </c>
       <c r="X32" t="n">
-        <v>889.6586118679415</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="Y32" t="n">
-        <v>889.6586118679415</v>
+        <v>1745.127780188711</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H33" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J33" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K33" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6576814496918</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M33" t="n">
-        <v>758.2365412873038</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N33" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O33" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P33" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q33" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R33" t="n">
         <v>1815.956238873899</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>539.2600019494885</v>
+        <v>680.8388311291853</v>
       </c>
       <c r="C34" t="n">
-        <v>539.2600019494885</v>
+        <v>680.8388311291853</v>
       </c>
       <c r="D34" t="n">
-        <v>539.2600019494885</v>
+        <v>517.522058255956</v>
       </c>
       <c r="E34" t="n">
-        <v>539.2600019494885</v>
+        <v>351.3138524088096</v>
       </c>
       <c r="F34" t="n">
-        <v>367.3982277240489</v>
+        <v>179.45207818337</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0610175107165</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H34" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I34" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J34" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K34" t="n">
-        <v>171.1136997362474</v>
+        <v>411.8981285166564</v>
       </c>
       <c r="L34" t="n">
-        <v>456.8103098456199</v>
+        <v>900.60941325815</v>
       </c>
       <c r="M34" t="n">
-        <v>989.30347400493</v>
+        <v>1433.10257741746</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.709457826329</v>
+        <v>1948.541484080739</v>
       </c>
       <c r="O34" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P34" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q34" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R34" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S34" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T34" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U34" t="n">
-        <v>1512.33261019127</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V34" t="n">
-        <v>1230.621142799299</v>
+        <v>1339.911464705704</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7687389718121</v>
+        <v>1339.911464705704</v>
       </c>
       <c r="X34" t="n">
-        <v>955.7687389718121</v>
+        <v>1097.347568151509</v>
       </c>
       <c r="Y34" t="n">
-        <v>729.4259706615542</v>
+        <v>871.004799841251</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>896.7109775631113</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C35" t="n">
-        <v>469.8102475764114</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D35" t="n">
-        <v>469.8102475764114</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E35" t="n">
-        <v>43.83330772426899</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F35" t="n">
         <v>43.83330772426899</v>
@@ -6937,13 +6937,13 @@
         <v>87.10761271643833</v>
       </c>
       <c r="J35" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K35" t="n">
-        <v>448.7747784804922</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L35" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M35" t="n">
         <v>1043.801082832444</v>
@@ -6964,25 +6964,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V35" t="n">
-        <v>1776.533215740616</v>
+        <v>1834.175971339699</v>
       </c>
       <c r="W35" t="n">
-        <v>1713.768246440474</v>
+        <v>1834.175971339699</v>
       </c>
       <c r="X35" t="n">
-        <v>1302.048247608221</v>
+        <v>1834.175971339699</v>
       </c>
       <c r="Y35" t="n">
-        <v>896.7109775631113</v>
+        <v>1745.127780188711</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>88.30073447494337</v>
       </c>
       <c r="J36" t="n">
-        <v>169.4835916153553</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K36" t="n">
-        <v>320.9381841013579</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L36" t="n">
-        <v>532.1149872941037</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M36" t="n">
-        <v>781.6938471317156</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N36" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O36" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P36" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R36" t="n">
         <v>1815.956238873899</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.1226437185823</v>
+        <v>803.5741594859942</v>
       </c>
       <c r="C37" t="n">
-        <v>207.1500805974983</v>
+        <v>710.5572708834168</v>
       </c>
       <c r="D37" t="n">
-        <v>43.83330772426899</v>
+        <v>547.2404980101875</v>
       </c>
       <c r="E37" t="n">
-        <v>43.83330772426899</v>
+        <v>381.032292163041</v>
       </c>
       <c r="F37" t="n">
-        <v>43.83330772426899</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G37" t="n">
         <v>43.83330772426899</v>
@@ -7095,22 +7095,22 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J37" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K37" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L37" t="n">
-        <v>283.4360908865759</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M37" t="n">
-        <v>742.6440485409494</v>
+        <v>1433.10257741746</v>
       </c>
       <c r="N37" t="n">
-        <v>1258.082955204228</v>
+        <v>1948.541484080739</v>
       </c>
       <c r="O37" t="n">
-        <v>1740.927831326519</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P37" t="n">
         <v>2140.554082608812</v>
@@ -7119,28 +7119,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R37" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S37" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U37" t="n">
-        <v>1512.332610191271</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V37" t="n">
-        <v>1230.6211427993</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W37" t="n">
-        <v>955.7687389718126</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="X37" t="n">
-        <v>713.2048424176177</v>
+        <v>993.7401281980598</v>
       </c>
       <c r="Y37" t="n">
-        <v>486.8620741073597</v>
+        <v>993.7401281980598</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>746.6794958688016</v>
+        <v>872.0988639736759</v>
       </c>
       <c r="C38" t="n">
-        <v>746.6794958688016</v>
+        <v>872.0988639736759</v>
       </c>
       <c r="D38" t="n">
-        <v>746.6794958688016</v>
+        <v>872.0988639736759</v>
       </c>
       <c r="E38" t="n">
-        <v>320.7025560166592</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="F38" t="n">
-        <v>320.7025560166592</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G38" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H38" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="I38" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643841</v>
       </c>
       <c r="J38" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037504</v>
       </c>
       <c r="K38" t="n">
-        <v>448.7747784804922</v>
+        <v>448.7747784804933</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050668</v>
       </c>
       <c r="M38" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832445</v>
       </c>
       <c r="N38" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O38" t="n">
         <v>1667.064768900565</v>
@@ -7201,25 +7201,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T38" t="n">
-        <v>1979.715642681246</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U38" t="n">
-        <v>1721.524768958721</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V38" t="n">
-        <v>1721.524768958721</v>
+        <v>1306.392598485888</v>
       </c>
       <c r="W38" t="n">
-        <v>1325.133419259068</v>
+        <v>1283.818862805929</v>
       </c>
       <c r="X38" t="n">
-        <v>1152.016765913911</v>
+        <v>872.0988639736759</v>
       </c>
       <c r="Y38" t="n">
-        <v>746.6794958688016</v>
+        <v>872.0988639736759</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I39" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J39" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K39" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L39" t="n">
-        <v>508.6576814496918</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M39" t="n">
-        <v>758.2365412873038</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N39" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O39" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P39" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q39" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R39" t="n">
         <v>1815.956238873899</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.0388737055521</v>
+        <v>544.942883902444</v>
       </c>
       <c r="C40" t="n">
-        <v>351.0663105844681</v>
+        <v>372.97032078136</v>
       </c>
       <c r="D40" t="n">
-        <v>187.7495377112388</v>
+        <v>372.97032078136</v>
       </c>
       <c r="E40" t="n">
-        <v>187.7495377112388</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F40" t="n">
         <v>43.83330772426899</v>
@@ -7332,22 +7332,22 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J40" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K40" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L40" t="n">
-        <v>283.4360908865759</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M40" t="n">
-        <v>742.6440485409494</v>
+        <v>1517.522474399294</v>
       </c>
       <c r="N40" t="n">
-        <v>1258.082955204228</v>
+        <v>1948.541484080739</v>
       </c>
       <c r="O40" t="n">
-        <v>1740.927831326519</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P40" t="n">
         <v>2140.554082608812</v>
@@ -7356,28 +7356,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R40" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S40" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T40" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U40" t="n">
-        <v>1512.332610191271</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V40" t="n">
-        <v>1230.6211427993</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W40" t="n">
-        <v>955.7687389718126</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="X40" t="n">
-        <v>713.2048424176177</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="Y40" t="n">
-        <v>713.2048424176177</v>
+        <v>735.1088526145097</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>904.4675000813585</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C41" t="n">
-        <v>904.4675000813585</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D41" t="n">
-        <v>481.1748792663587</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E41" t="n">
-        <v>481.1748792663587</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F41" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G41" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H41" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I41" t="n">
         <v>87.10761271643844</v>
@@ -7429,10 +7429,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P41" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q41" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R41" t="n">
         <v>2191.665386213449</v>
@@ -7441,22 +7441,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T41" t="n">
-        <v>1979.715642681246</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U41" t="n">
-        <v>1721.524768958721</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V41" t="n">
-        <v>1721.524768958721</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="W41" t="n">
-        <v>1721.524768958721</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.804770126468</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="Y41" t="n">
-        <v>904.4675000813585</v>
+        <v>2164.976144480241</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H42" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J42" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K42" t="n">
-        <v>297.4808782569461</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L42" t="n">
-        <v>508.6576814496919</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M42" t="n">
-        <v>758.2365412873039</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N42" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O42" t="n">
-        <v>1249.652366935844</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P42" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q42" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R42" t="n">
         <v>1815.956238873899</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>852.8113942502694</v>
+        <v>825.0771637025523</v>
       </c>
       <c r="C43" t="n">
-        <v>680.8388311291853</v>
+        <v>752.9477230163951</v>
       </c>
       <c r="D43" t="n">
-        <v>517.522058255956</v>
+        <v>589.6309501431658</v>
       </c>
       <c r="E43" t="n">
-        <v>351.3138524088096</v>
+        <v>423.4227442960193</v>
       </c>
       <c r="F43" t="n">
-        <v>179.45207818337</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="G43" t="n">
-        <v>179.45207818337</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H43" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I43" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J43" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K43" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L43" t="n">
-        <v>608.6404166488189</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M43" t="n">
-        <v>727.5981003453072</v>
+        <v>778.7826681742292</v>
       </c>
       <c r="N43" t="n">
-        <v>1243.037007008586</v>
+        <v>1258.082955204228</v>
       </c>
       <c r="O43" t="n">
-        <v>1589.554333948619</v>
+        <v>1740.927831326519</v>
       </c>
       <c r="P43" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q43" t="n">
         <v>2191.665386213449</v>
@@ -7596,25 +7596,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S43" t="n">
-        <v>2191.665386213449</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T43" t="n">
-        <v>1952.255919907028</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U43" t="n">
-        <v>1672.12164010692</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.17253510008</v>
+        <v>1516.438304552363</v>
       </c>
       <c r="W43" t="n">
-        <v>1269.320131272593</v>
+        <v>1241.585900724876</v>
       </c>
       <c r="X43" t="n">
-        <v>1269.320131272593</v>
+        <v>1241.585900724876</v>
       </c>
       <c r="Y43" t="n">
-        <v>1042.977362962335</v>
+        <v>1015.243132414618</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>970.088402177156</v>
+        <v>1714.174266322836</v>
       </c>
       <c r="C44" t="n">
-        <v>871.2461059321332</v>
+        <v>1287.273536336136</v>
       </c>
       <c r="D44" t="n">
-        <v>871.2461059321332</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E44" t="n">
-        <v>871.2461059321332</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F44" t="n">
-        <v>446.1219241215334</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G44" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H44" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I44" t="n">
         <v>87.10761271643841</v>
@@ -7651,10 +7651,10 @@
         <v>228.5477172037495</v>
       </c>
       <c r="K44" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L44" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M44" t="n">
         <v>1043.801082832444</v>
@@ -7666,34 +7666,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P44" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q44" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R44" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V44" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W44" t="n">
-        <v>1795.274036513796</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="X44" t="n">
-        <v>1795.274036513796</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="Y44" t="n">
-        <v>1389.936766468686</v>
+        <v>2134.022630614366</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>974.9733260640804</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C45" t="n">
-        <v>857.4674225815852</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D45" t="n">
-        <v>753.6274640968702</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E45" t="n">
-        <v>648.9255303698075</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F45" t="n">
-        <v>555.2797000527116</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G45" t="n">
-        <v>462.3230136065757</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>419.5424550638183</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I45" t="n">
-        <v>440.5525759700809</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J45" t="n">
-        <v>521.7354331104929</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K45" t="n">
-        <v>673.1900255964955</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L45" t="n">
-        <v>884.3668287892413</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.945688626853</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.471563038101</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O45" t="n">
-        <v>1849.832876947296</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P45" t="n">
-        <v>2033.605971491477</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q45" t="n">
-        <v>2148.341548985152</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R45" t="n">
-        <v>2191.665386213449</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S45" t="n">
-        <v>2130.719017717955</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T45" t="n">
-        <v>1993.261105805208</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U45" t="n">
-        <v>1808.565086391704</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V45" t="n">
-        <v>1603.591947530971</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W45" t="n">
-        <v>1407.070570364188</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X45" t="n">
-        <v>1243.593224130851</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y45" t="n">
-        <v>1103.900335484143</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.9963539074676</v>
+        <v>977.6060690093357</v>
       </c>
       <c r="C46" t="n">
-        <v>766.9963539074676</v>
+        <v>805.6335058882516</v>
       </c>
       <c r="D46" t="n">
-        <v>603.6795810342383</v>
+        <v>642.3167330150224</v>
       </c>
       <c r="E46" t="n">
-        <v>437.4713751870918</v>
+        <v>476.1085271678759</v>
       </c>
       <c r="F46" t="n">
-        <v>416.8981802839121</v>
+        <v>304.2467529424363</v>
       </c>
       <c r="G46" t="n">
-        <v>251.5609700705797</v>
+        <v>138.9095427291039</v>
       </c>
       <c r="H46" t="n">
         <v>115.9421996114787</v>
       </c>
       <c r="I46" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J46" t="n">
         <v>87.13587819270245</v>
       </c>
       <c r="K46" t="n">
-        <v>381.6345055669481</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L46" t="n">
-        <v>870.3457903084417</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M46" t="n">
-        <v>989.30347400493</v>
+        <v>778.7826681742292</v>
       </c>
       <c r="N46" t="n">
-        <v>1106.709457826329</v>
+        <v>1294.221574837508</v>
       </c>
       <c r="O46" t="n">
-        <v>1589.554333948619</v>
+        <v>1740.927831326519</v>
       </c>
       <c r="P46" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q46" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R46" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S46" t="n">
-        <v>2031.8763562978</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.466889991379</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U46" t="n">
-        <v>1792.466889991379</v>
+        <v>1911.531106413341</v>
       </c>
       <c r="V46" t="n">
-        <v>1510.755422599407</v>
+        <v>1911.531106413341</v>
       </c>
       <c r="W46" t="n">
-        <v>1235.90301877192</v>
+        <v>1636.678702585854</v>
       </c>
       <c r="X46" t="n">
-        <v>993.3391222177255</v>
+        <v>1394.114806031659</v>
       </c>
       <c r="Y46" t="n">
-        <v>766.9963539074676</v>
+        <v>1167.772037721401</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>226.7387501736386</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>226.7387501736388</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>190.7846228080666</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>32.14122554845012</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>96.52379448745901</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>96.52379448745958</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.0562776544479</v>
+        <v>243.2165947276852</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K18" t="n">
-        <v>203.0445018459499</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>332.4399833141285</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>192.1113204969937</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>226.7387501736388</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>96.52379448745933</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>352.9759414340049</v>
       </c>
       <c r="N22" t="n">
-        <v>264.3488622824468</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>192.111320496993</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,16 +9807,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>365.5498012208084</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>176.4521713849308</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>241.8898970387584</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>226.7387501736391</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>96.52379448745933</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>126.5091793556845</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>179.5374607101905</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>226.7387501736391</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>164.5077900325133</v>
       </c>
       <c r="L34" t="n">
-        <v>175.1254736960041</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.52379448745913</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>203.0445018459503</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>343.6871454120053</v>
+        <v>332.4399833141291</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>343.6871454120053</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>316.7808342020671</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>226.738750173639</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>365.5498012208084</v>
       </c>
       <c r="O43" t="n">
-        <v>243.8129041625713</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.52379448745937</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>226.7387501736388</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>212.6472786168694</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>345.0138431009327</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>174.9182328127107</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23275,7 +23275,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H11" t="n">
-        <v>104.0183625776227</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T11" t="n">
         <v>209.8302460968812</v>
@@ -23320,7 +23320,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.651592243653283</v>
+        <v>35.71963162606666</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>39.38736160044266</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H14" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>243.2567876089012</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>47.17884963644086</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S16" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.9678101225765</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H17" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>289.3886910884124</v>
       </c>
       <c r="W17" t="n">
-        <v>372.8825434094559</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H19" t="n">
-        <v>34.11636744448883</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T19" t="n">
         <v>237.0153716433569</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>56.59227119172914</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
         <v>274.1005558094662</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>267.1564987474174</v>
       </c>
       <c r="W20" t="n">
-        <v>28.53636515061646</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>66.34363904247439</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>103.9678101225756</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>253.9931092944159</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H23" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>232.5972170080112</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>43.5158052037374</v>
       </c>
       <c r="I25" t="n">
         <v>71.38780296833761</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.8650886612688</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>44.97111220891804</v>
+        <v>240.4742248240969</v>
       </c>
       <c r="G26" t="n">
         <v>398.2657302332918</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.9476273865162</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.86361404476429</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
         <v>255.6089649852995</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>82.80052594730392</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>358.7356203853531</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>34.68617842183704</v>
       </c>
       <c r="W31" t="n">
-        <v>217.8650886612683</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.2657302332918</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>33.54906756980721</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>175.3608149763201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H34" t="n">
-        <v>49.00495303426463</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>102.5713655539145</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.2657302332918</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T35" t="n">
         <v>209.8302460968812</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>330.2901165955161</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>313.1261881051804</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.60227294005531</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>78.16611777332152</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>134.26258275451</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.62605313342555</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25405,10 +25405,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06632804309219</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>370.079437879497</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2173120322249</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>8.843637345340085</v>
       </c>
       <c r="F40" t="n">
-        <v>27.66608879608512</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.6838381111991</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>262.0053399752912</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>381.1804495280535</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>98.84469121057754</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S43" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V43" t="n">
-        <v>152.2247387612802</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>324.7778494042603</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>30.64397872721582</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H44" t="n">
         <v>274.1005558094662</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.8302460968812</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>149.7756935290373</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>111.5249130680611</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365589.0718691499</v>
+        <v>365589.0718691497</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365589.0718691497</v>
+        <v>365589.07186915</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>365589.0718691497</v>
+        <v>365589.07186915</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>365589.0718691497</v>
+        <v>365589.0718691499</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365589.07186915</v>
+        <v>365589.0718691499</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>430317.9085594745</v>
+      </c>
+      <c r="C2" t="n">
         <v>430317.9085594746</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>430317.9085594745</v>
-      </c>
-      <c r="D2" t="n">
-        <v>430317.9085594747</v>
       </c>
       <c r="E2" t="n">
         <v>260087.1527221308</v>
       </c>
       <c r="F2" t="n">
-        <v>260087.1527221307</v>
+        <v>260087.1527221306</v>
       </c>
       <c r="G2" t="n">
         <v>260087.1527221307</v>
@@ -26334,28 +26334,28 @@
         <v>260087.1527221307</v>
       </c>
       <c r="I2" t="n">
-        <v>260087.1527221306</v>
+        <v>260087.1527221308</v>
       </c>
       <c r="J2" t="n">
         <v>260087.1527221307</v>
       </c>
       <c r="K2" t="n">
+        <v>260087.1527221308</v>
+      </c>
+      <c r="L2" t="n">
+        <v>260087.1527221308</v>
+      </c>
+      <c r="M2" t="n">
+        <v>260087.1527221308</v>
+      </c>
+      <c r="N2" t="n">
+        <v>260087.1527221308</v>
+      </c>
+      <c r="O2" t="n">
         <v>260087.1527221307</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>260087.1527221306</v>
-      </c>
-      <c r="M2" t="n">
-        <v>260087.1527221306</v>
-      </c>
-      <c r="N2" t="n">
-        <v>260087.1527221307</v>
-      </c>
-      <c r="O2" t="n">
-        <v>260087.1527221306</v>
-      </c>
-      <c r="P2" t="n">
-        <v>260087.1527221307</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136542.9452264839</v>
+        <v>136542.9452264841</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>19257.19159663033</v>
       </c>
       <c r="F4" t="n">
-        <v>19257.19159663032</v>
+        <v>19257.19159663033</v>
       </c>
       <c r="G4" t="n">
         <v>19257.19159663033</v>
       </c>
       <c r="H4" t="n">
-        <v>19257.19159663033</v>
+        <v>19257.19159663034</v>
       </c>
       <c r="I4" t="n">
         <v>19257.19159663033</v>
@@ -26447,19 +26447,19 @@
         <v>19257.19159663033</v>
       </c>
       <c r="L4" t="n">
+        <v>19257.19159663033</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19257.19159663033</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19257.19159663036</v>
+      </c>
+      <c r="O4" t="n">
         <v>19257.19159663034</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>19257.19159663034</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19257.19159663035</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19257.19159663033</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19257.19159663033</v>
       </c>
     </row>
     <row r="5">
@@ -26481,22 +26481,22 @@
         <v>44321.17942781076</v>
       </c>
       <c r="F5" t="n">
+        <v>44321.17942781075</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44321.17942781075</v>
+      </c>
+      <c r="H5" t="n">
         <v>44321.17942781076</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>44321.17942781076</v>
       </c>
-      <c r="H5" t="n">
-        <v>44321.17942781075</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44321.17942781074</v>
-      </c>
       <c r="J5" t="n">
-        <v>44321.17942781074</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="K5" t="n">
-        <v>44321.17942781075</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="L5" t="n">
         <v>44321.17942781076</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74933.00600955263</v>
+        <v>74911.29236805609</v>
       </c>
       <c r="C6" t="n">
-        <v>74933.00600955245</v>
+        <v>74911.29236805621</v>
       </c>
       <c r="D6" t="n">
-        <v>74933.00600955269</v>
+        <v>74911.29236805615</v>
       </c>
       <c r="E6" t="n">
-        <v>-372763.6922136479</v>
+        <v>-373352.8417079354</v>
       </c>
       <c r="F6" t="n">
-        <v>196508.7816976896</v>
+        <v>195919.6322034021</v>
       </c>
       <c r="G6" t="n">
-        <v>196508.7816976897</v>
+        <v>195919.6322034021</v>
       </c>
       <c r="H6" t="n">
-        <v>196508.7816976896</v>
+        <v>195919.6322034021</v>
       </c>
       <c r="I6" t="n">
-        <v>196508.7816976896</v>
+        <v>195919.6322034023</v>
       </c>
       <c r="J6" t="n">
-        <v>196508.7816976897</v>
+        <v>195919.6322034021</v>
       </c>
       <c r="K6" t="n">
-        <v>196508.7816976896</v>
+        <v>195919.6322034022</v>
       </c>
       <c r="L6" t="n">
-        <v>196508.7816976896</v>
+        <v>195919.6322034022</v>
       </c>
       <c r="M6" t="n">
-        <v>59965.83647120558</v>
+        <v>59376.68697691813</v>
       </c>
       <c r="N6" t="n">
-        <v>196508.7816976896</v>
+        <v>195919.6322034022</v>
       </c>
       <c r="O6" t="n">
-        <v>196508.7816976896</v>
+        <v>195919.6322034021</v>
       </c>
       <c r="P6" t="n">
-        <v>196508.7816976896</v>
+        <v>195919.6322034021</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>504.9479613470796</v>
       </c>
       <c r="F3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470795</v>
       </c>
       <c r="G3" t="n">
         <v>504.9479613470796</v>
@@ -26758,22 +26758,22 @@
         <v>504.9479613470796</v>
       </c>
       <c r="I3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="J3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="K3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="L3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="M3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="N3" t="n">
-        <v>504.9479613470795</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="O3" t="n">
         <v>504.9479613470796</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>547.9163465533622</v>
+      </c>
+      <c r="F4" t="n">
+        <v>547.9163465533621</v>
+      </c>
+      <c r="G4" t="n">
+        <v>547.9163465533621</v>
+      </c>
+      <c r="H4" t="n">
         <v>547.9163465533624</v>
       </c>
-      <c r="F4" t="n">
-        <v>547.9163465533622</v>
-      </c>
-      <c r="G4" t="n">
-        <v>547.9163465533622</v>
-      </c>
-      <c r="H4" t="n">
-        <v>547.9163465533621</v>
-      </c>
       <c r="I4" t="n">
-        <v>547.916346553362</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="J4" t="n">
-        <v>547.916346553362</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="K4" t="n">
-        <v>547.9163465533621</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="L4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="M4" t="n">
         <v>547.9163465533624</v>
@@ -26828,10 +26828,10 @@
         <v>547.9163465533624</v>
       </c>
       <c r="O4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="P4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
     </row>
   </sheetData>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>547.9163465533621</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>547.9163465533622</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>547.9163465533617</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,43 +31995,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I14" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J14" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K14" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L14" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M14" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N14" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O14" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P14" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q14" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R14" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25729314249882</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T14" t="n">
-        <v>8.886069148932023</v>
+        <v>8.88606914893202</v>
       </c>
       <c r="U14" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H15" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I15" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J15" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K15" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L15" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M15" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N15" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O15" t="n">
-        <v>258.4142647093871</v>
+        <v>258.414264709387</v>
       </c>
       <c r="P15" t="n">
         <v>207.4002296332939</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R15" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S15" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T15" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.07145490019062449</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H16" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417116</v>
       </c>
       <c r="I16" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J16" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K16" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L16" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M16" t="n">
         <v>142.7347163525851</v>
@@ -32177,19 +32177,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R16" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S16" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T16" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,13 +32232,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I17" t="n">
-        <v>78.25932172797303</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J17" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K17" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L17" t="n">
         <v>320.3400016493639</v>
@@ -32247,7 +32247,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N17" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O17" t="n">
         <v>342.022314863991</v>
@@ -32259,7 +32259,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R17" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S17" t="n">
         <v>46.25729314249881</v>
@@ -32268,7 +32268,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U17" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I18" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J18" t="n">
         <v>102.6140003337495</v>
@@ -32323,10 +32323,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M18" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N18" t="n">
-        <v>282.4802750935894</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O18" t="n">
         <v>258.4142647093871</v>
@@ -32338,13 +32338,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R18" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S18" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T18" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U18" t="n">
         <v>0.0714549001906245</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.910561897511127</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H19" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I19" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J19" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K19" t="n">
         <v>105.7907368199291</v>
@@ -32414,16 +32414,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R19" t="n">
-        <v>40.94217404627303</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S19" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T19" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U19" t="n">
         <v>0.04966701259151608</v>
@@ -32469,13 +32469,13 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I20" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J20" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K20" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L20" t="n">
         <v>320.3400016493639</v>
@@ -32484,7 +32484,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N20" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O20" t="n">
         <v>342.022314863991</v>
@@ -32496,7 +32496,7 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R20" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S20" t="n">
         <v>46.25729314249881</v>
@@ -32505,7 +32505,7 @@
         <v>8.886069148932021</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I21" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J21" t="n">
         <v>102.6140003337495</v>
@@ -32560,10 +32560,10 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M21" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N21" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O21" t="n">
         <v>258.4142647093871</v>
@@ -32575,13 +32575,13 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R21" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S21" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T21" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U21" t="n">
         <v>0.0714549001906245</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H22" t="n">
         <v>8.095723052417117</v>
       </c>
       <c r="I22" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J22" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K22" t="n">
         <v>105.7907368199291</v>
@@ -32651,16 +32651,16 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R22" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S22" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T22" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U22" t="n">
         <v>0.04966701259151608</v>
@@ -32706,25 +32706,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I23" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J23" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K23" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L23" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M23" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N23" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O23" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P23" t="n">
         <v>291.9081327704994</v>
@@ -32733,16 +32733,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R23" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S23" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T23" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I24" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J24" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K24" t="n">
         <v>175.3836706878814</v>
@@ -32797,13 +32797,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M24" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N24" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O24" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P24" t="n">
         <v>207.4002296332939</v>
@@ -32812,16 +32812,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R24" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S24" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T24" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H25" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I25" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J25" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K25" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L25" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M25" t="n">
         <v>142.7347163525851</v>
@@ -32888,19 +32888,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R25" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S25" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T25" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,25 +32943,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I26" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J26" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K26" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L26" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M26" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N26" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O26" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P26" t="n">
         <v>291.9081327704994</v>
@@ -32970,16 +32970,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R26" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S26" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T26" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,10 +33022,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I27" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J27" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K27" t="n">
         <v>175.3836706878814</v>
@@ -33034,13 +33034,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M27" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N27" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O27" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P27" t="n">
         <v>207.4002296332939</v>
@@ -33049,16 +33049,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R27" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S27" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T27" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H28" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I28" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J28" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K28" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L28" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M28" t="n">
         <v>142.7347163525851</v>
@@ -33125,19 +33125,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q28" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R28" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S28" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T28" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,25 +33180,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I29" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J29" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K29" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L29" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M29" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N29" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O29" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P29" t="n">
         <v>291.9081327704994</v>
@@ -33207,16 +33207,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R29" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S29" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T29" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,10 +33259,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I30" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J30" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K30" t="n">
         <v>175.3836706878814</v>
@@ -33271,13 +33271,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M30" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N30" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O30" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P30" t="n">
         <v>207.4002296332939</v>
@@ -33286,16 +33286,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R30" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S30" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T30" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H31" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I31" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J31" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K31" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L31" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M31" t="n">
         <v>142.7347163525851</v>
@@ -33362,19 +33362,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R31" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S31" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T31" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,25 +33417,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I32" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J32" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K32" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L32" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M32" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N32" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O32" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P32" t="n">
         <v>291.9081327704994</v>
@@ -33444,16 +33444,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R32" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S32" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T32" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I33" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J33" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K33" t="n">
         <v>175.3836706878814</v>
@@ -33508,13 +33508,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M33" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N33" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O33" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P33" t="n">
         <v>207.4002296332939</v>
@@ -33523,16 +33523,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R33" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S33" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T33" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H34" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I34" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J34" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K34" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L34" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M34" t="n">
         <v>142.7347163525851</v>
@@ -33599,19 +33599,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q34" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R34" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S34" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T34" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,25 +33654,25 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I35" t="n">
-        <v>78.25932172797302</v>
+        <v>78.25932172797303</v>
       </c>
       <c r="J35" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K35" t="n">
-        <v>258.2161778420244</v>
+        <v>258.2161778420245</v>
       </c>
       <c r="L35" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M35" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N35" t="n">
-        <v>362.2075461831669</v>
+        <v>362.207546183167</v>
       </c>
       <c r="O35" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P35" t="n">
         <v>291.9081327704994</v>
@@ -33681,16 +33681,16 @@
         <v>219.2108508981686</v>
       </c>
       <c r="R35" t="n">
-        <v>127.5133160883155</v>
+        <v>127.5133160883156</v>
       </c>
       <c r="S35" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T35" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1623953242523269</v>
+        <v>0.162395324252327</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,10 +33733,10 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I36" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976015</v>
       </c>
       <c r="J36" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K36" t="n">
         <v>175.3836706878814</v>
@@ -33745,13 +33745,13 @@
         <v>235.8249889291243</v>
       </c>
       <c r="M36" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341584</v>
       </c>
       <c r="N36" t="n">
-        <v>282.4802750935893</v>
+        <v>282.4802750935894</v>
       </c>
       <c r="O36" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P36" t="n">
         <v>207.4002296332939</v>
@@ -33760,16 +33760,16 @@
         <v>138.6415610098623</v>
       </c>
       <c r="R36" t="n">
-        <v>67.43437113989869</v>
+        <v>67.4343711398987</v>
       </c>
       <c r="S36" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T36" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678925</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.910561897511127</v>
       </c>
       <c r="H37" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I37" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878918</v>
       </c>
       <c r="J37" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403669</v>
       </c>
       <c r="K37" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L37" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M37" t="n">
         <v>142.7347163525851</v>
@@ -33836,19 +33836,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340902</v>
       </c>
       <c r="R37" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627303</v>
       </c>
       <c r="S37" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T37" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002088</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,22 +33894,22 @@
         <v>78.25932172797302</v>
       </c>
       <c r="J38" t="n">
-        <v>172.2887518970118</v>
+        <v>172.2887518970119</v>
       </c>
       <c r="K38" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L38" t="n">
-        <v>320.3400016493638</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M38" t="n">
-        <v>356.4399747452678</v>
+        <v>356.4399747452679</v>
       </c>
       <c r="N38" t="n">
         <v>362.2075461831669</v>
       </c>
       <c r="O38" t="n">
-        <v>342.0223148639909</v>
+        <v>342.022314863991</v>
       </c>
       <c r="P38" t="n">
         <v>291.9081327704994</v>
@@ -33921,10 +33921,10 @@
         <v>127.5133160883155</v>
       </c>
       <c r="S38" t="n">
-        <v>46.2572931424988</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T38" t="n">
-        <v>8.88606914893202</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U38" t="n">
         <v>0.1623953242523269</v>
@@ -33973,7 +33973,7 @@
         <v>37.39473109976014</v>
       </c>
       <c r="J39" t="n">
-        <v>102.6140003337494</v>
+        <v>102.6140003337495</v>
       </c>
       <c r="K39" t="n">
         <v>175.3836706878814</v>
@@ -33988,7 +33988,7 @@
         <v>282.4802750935893</v>
       </c>
       <c r="O39" t="n">
-        <v>258.414264709387</v>
+        <v>258.4142647093871</v>
       </c>
       <c r="P39" t="n">
         <v>207.4002296332939</v>
@@ -34006,7 +34006,7 @@
         <v>4.377803551678924</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07145490019062449</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.9105618975111269</v>
       </c>
       <c r="H40" t="n">
-        <v>8.095723052417116</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I40" t="n">
         <v>27.38307960878917</v>
@@ -34058,7 +34058,7 @@
         <v>105.7907368199291</v>
       </c>
       <c r="L40" t="n">
-        <v>135.3757206536088</v>
+        <v>135.3757206536089</v>
       </c>
       <c r="M40" t="n">
         <v>142.7347163525851</v>
@@ -34085,7 +34085,7 @@
         <v>3.890582653002087</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04966701259151607</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>172.2887518970119</v>
       </c>
       <c r="K44" t="n">
-        <v>258.2161778420248</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L44" t="n">
         <v>320.3400016493639</v>
@@ -34380,7 +34380,7 @@
         <v>356.4399747452679</v>
       </c>
       <c r="N44" t="n">
-        <v>362.2075461831669</v>
+        <v>362.2075461831679</v>
       </c>
       <c r="O44" t="n">
         <v>342.022314863991</v>
@@ -35488,7 +35488,7 @@
         <v>21.22234434976015</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041614</v>
+        <v>308.7416361740547</v>
       </c>
       <c r="K12" t="n">
         <v>152.9844368545481</v>
@@ -35503,7 +35503,7 @@
         <v>261.1372468800477</v>
       </c>
       <c r="O12" t="n">
-        <v>461.9811251608036</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P12" t="n">
         <v>185.6293884284653</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.73997017013482</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K13" t="n">
         <v>84.82608236721711</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M13" t="n">
-        <v>310.9438992691659</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N13" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O13" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P13" t="n">
-        <v>403.6628800831245</v>
+        <v>119.8887474767185</v>
       </c>
       <c r="Q13" t="n">
         <v>204.5301020025625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J14" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K14" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L14" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167409</v>
       </c>
       <c r="M14" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N14" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O14" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P14" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R14" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351906</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.91659267744888</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J15" t="n">
-        <v>82.00288600041615</v>
+        <v>82.00288600041611</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L15" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M15" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218303</v>
       </c>
       <c r="N15" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O15" t="n">
-        <v>331.7661694746239</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P15" t="n">
-        <v>185.6293884284653</v>
+        <v>282.1531829159248</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.8945227208839</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R15" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K16" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721708</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4569607579077</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M16" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N16" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O16" t="n">
-        <v>487.2608754515053</v>
+        <v>349.4211925247427</v>
       </c>
       <c r="P16" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826831</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.62757939862408</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>43.71141918400953</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J17" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K17" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L17" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M17" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N17" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O17" t="n">
         <v>304.6313555079669</v>
@@ -35904,7 +35904,7 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R17" t="n">
         <v>92.48066619351908</v>
@@ -35962,13 +35962,13 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J18" t="n">
-        <v>82.00288600041614</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K18" t="n">
-        <v>356.028938700498</v>
+        <v>152.9844368545481</v>
       </c>
       <c r="L18" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M18" t="n">
         <v>252.0998584218304</v>
@@ -35980,13 +35980,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P18" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q18" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.73997017013482</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K19" t="n">
-        <v>84.82608236721711</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L19" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M19" t="n">
-        <v>120.1592764610993</v>
+        <v>452.5992597752278</v>
       </c>
       <c r="N19" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O19" t="n">
-        <v>298.3159182940511</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J20" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K20" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L20" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M20" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N20" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O20" t="n">
         <v>304.6313555079669</v>
@@ -36141,7 +36141,7 @@
         <v>254.3327709602681</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R20" t="n">
         <v>92.48066619351908</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J21" t="n">
-        <v>82.00288600041613</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K21" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L21" t="n">
-        <v>440.0486523885336</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M21" t="n">
         <v>252.0998584218304</v>
@@ -36217,13 +36217,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P21" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083432</v>
       </c>
       <c r="R21" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>334.6064956137041</v>
       </c>
       <c r="L22" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M22" t="n">
-        <v>120.1592764610993</v>
+        <v>473.1352178951042</v>
       </c>
       <c r="N22" t="n">
-        <v>382.9407651323447</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O22" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P22" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J23" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K23" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L23" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M23" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N23" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O23" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P23" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R23" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J24" t="n">
-        <v>82.00288600041611</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K24" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L24" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M24" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8759970536867</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O24" t="n">
         <v>235.2423749871648</v>
       </c>
       <c r="P24" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q24" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R24" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.73997017013481</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K25" t="n">
-        <v>276.9374028642101</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L25" t="n">
         <v>493.647762365145</v>
@@ -36527,16 +36527,16 @@
         <v>120.1592764610993</v>
       </c>
       <c r="N25" t="n">
-        <v>520.6453602659385</v>
+        <v>484.1417040707063</v>
       </c>
       <c r="O25" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P25" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J26" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K26" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L26" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M26" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N26" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O26" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P26" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R26" t="n">
-        <v>92.48066619351853</v>
+        <v>92.48066619351944</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J27" t="n">
-        <v>82.00288600041611</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L27" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M27" t="n">
-        <v>478.8386085954693</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N27" t="n">
         <v>261.1372468800477</v>
@@ -36691,13 +36691,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P27" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q27" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R27" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.73997017013481</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K28" t="n">
-        <v>261.2782537521479</v>
+        <v>84.82608236721711</v>
       </c>
       <c r="L28" t="n">
-        <v>493.647762365145</v>
+        <v>355.3468577966661</v>
       </c>
       <c r="M28" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N28" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O28" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P28" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J29" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K29" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L29" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M29" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N29" t="n">
-        <v>324.9279233487209</v>
+        <v>324.9279233487214</v>
       </c>
       <c r="O29" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P29" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R29" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J30" t="n">
-        <v>82.00288600041611</v>
+        <v>82.00288600041614</v>
       </c>
       <c r="K30" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L30" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M30" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N30" t="n">
         <v>261.1372468800477</v>
       </c>
       <c r="O30" t="n">
-        <v>461.9811251608039</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P30" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q30" t="n">
-        <v>115.8945227208838</v>
+        <v>212.4183172083432</v>
       </c>
       <c r="R30" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K31" t="n">
-        <v>84.82608236721708</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L31" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M31" t="n">
-        <v>246.6684558167838</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N31" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O31" t="n">
-        <v>487.7220970932224</v>
+        <v>285.7420585072479</v>
       </c>
       <c r="P31" t="n">
-        <v>87.74752192826831</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q31" t="n">
         <v>204.5301020025625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J32" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K32" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L32" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M32" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N32" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O32" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P32" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R32" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J33" t="n">
-        <v>82.00288600041611</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L33" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M33" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N33" t="n">
         <v>261.1372468800477</v>
       </c>
       <c r="O33" t="n">
-        <v>461.9811251608039</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P33" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q33" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R33" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K34" t="n">
-        <v>84.82608236721708</v>
+        <v>249.3338723997304</v>
       </c>
       <c r="L34" t="n">
-        <v>288.5824344539117</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M34" t="n">
         <v>537.871882989202</v>
       </c>
       <c r="N34" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O34" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970575</v>
       </c>
       <c r="P34" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>43.71141918400951</v>
+        <v>43.71141918400953</v>
       </c>
       <c r="J35" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K35" t="n">
-        <v>222.4515770472151</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L35" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M35" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N35" t="n">
-        <v>324.9279233487209</v>
+        <v>324.927923348721</v>
       </c>
       <c r="O35" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P35" t="n">
         <v>254.3327709602681</v>
       </c>
       <c r="Q35" t="n">
-        <v>183.0861762935705</v>
+        <v>183.0861762935706</v>
       </c>
       <c r="R35" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>44.91659267744886</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J36" t="n">
-        <v>82.00288600041611</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L36" t="n">
-        <v>213.3099022148947</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M36" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N36" t="n">
-        <v>464.1817487259979</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O36" t="n">
         <v>235.2423749871648</v>
       </c>
       <c r="P36" t="n">
-        <v>185.6293884284652</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q36" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R36" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K37" t="n">
-        <v>84.82608236721708</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L37" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M37" t="n">
-        <v>463.8464218731045</v>
+        <v>452.5992597752283</v>
       </c>
       <c r="N37" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O37" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970575</v>
       </c>
       <c r="P37" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.62757939862406</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>43.71141918400951</v>
       </c>
       <c r="J38" t="n">
-        <v>142.8687924114253</v>
+        <v>142.8687924114262</v>
       </c>
       <c r="K38" t="n">
         <v>222.4515770472151</v>
       </c>
       <c r="L38" t="n">
-        <v>282.0279592167409</v>
+        <v>282.027959216741</v>
       </c>
       <c r="M38" t="n">
         <v>319.008711845836</v>
@@ -37557,7 +37557,7 @@
         <v>324.9279233487209</v>
       </c>
       <c r="O38" t="n">
-        <v>304.6313555079668</v>
+        <v>304.6313555079669</v>
       </c>
       <c r="P38" t="n">
         <v>254.3327709602681</v>
@@ -37566,7 +37566,7 @@
         <v>183.0861762935705</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48066619351906</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J39" t="n">
-        <v>82.00288600041611</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
@@ -37630,7 +37630,7 @@
         <v>213.3099022148947</v>
       </c>
       <c r="M39" t="n">
-        <v>252.0998584218303</v>
+        <v>252.0998584218304</v>
       </c>
       <c r="N39" t="n">
         <v>261.1372468800477</v>
@@ -37639,13 +37639,13 @@
         <v>235.2423749871648</v>
       </c>
       <c r="P39" t="n">
-        <v>412.3681386021042</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q39" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R39" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K40" t="n">
-        <v>84.82608236721708</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L40" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M40" t="n">
-        <v>463.8464218731045</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N40" t="n">
-        <v>520.6453602659385</v>
+        <v>435.372737051965</v>
       </c>
       <c r="O40" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P40" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q40" t="n">
         <v>51.62757939862406</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J42" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K42" t="n">
         <v>152.9844368545481</v>
@@ -37879,10 +37879,10 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q42" t="n">
-        <v>342.6332728945229</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R42" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K43" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L43" t="n">
-        <v>113.4569607579076</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M43" t="n">
         <v>120.1592764610993</v>
       </c>
       <c r="N43" t="n">
-        <v>520.6453602659385</v>
+        <v>484.1417040707063</v>
       </c>
       <c r="O43" t="n">
-        <v>350.0175019596288</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P43" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q43" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>142.8687924114253</v>
       </c>
       <c r="K44" t="n">
-        <v>222.4515770472155</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L44" t="n">
         <v>282.027959216741</v>
@@ -38028,7 +38028,7 @@
         <v>319.008711845836</v>
       </c>
       <c r="N44" t="n">
-        <v>324.9279233487209</v>
+        <v>324.9279233487219</v>
       </c>
       <c r="O44" t="n">
         <v>304.6313555079669</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J45" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K45" t="n">
         <v>152.9844368545481</v>
@@ -38110,7 +38110,7 @@
         <v>261.1372468800477</v>
       </c>
       <c r="O45" t="n">
-        <v>461.9811251608036</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P45" t="n">
         <v>185.6293884284652</v>
@@ -38119,7 +38119,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R45" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K46" t="n">
-        <v>297.4733609840865</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L46" t="n">
         <v>493.647762365145</v>
@@ -38186,16 +38186,16 @@
         <v>120.1592764610993</v>
       </c>
       <c r="N46" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O46" t="n">
-        <v>487.7220970932224</v>
+        <v>451.2184408979901</v>
       </c>
       <c r="P46" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q46" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
